--- a/biology/Zoologie/Euploea_treitschkei/Euploea_treitschkei.xlsx
+++ b/biology/Zoologie/Euploea_treitschkei/Euploea_treitschkei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea  treitschkei est un insecte lépidoptère  de la famille des  Nymphalidae, de la sous-famille des Danainae et du genre Euploea.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea  treitschkei nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1832[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea  treitschkei nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1832.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Euploea treitschkei treitschkei'
 Euploea treitschkei aebutia (Fruhstorfer, 1910)
@@ -554,7 +570,7 @@
 Euploea treitschkei jessica (Butler, 1869) au Vanuatu et en Nouvelle-Calédonie
 Euploea treitschkei suffusa (Tytler, 1939
 Euploea treitschkei ursula (Butler, 1883)
-Euploea treitschkei viridis (Butler, 1882[1].</t>
+Euploea treitschkei viridis (Butler, 1882.</t>
         </is>
       </c>
     </row>
@@ -582,7 +598,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon marron foncé avec une ornementation de taches blanches formant une ligne aux ailes postérieures.
 </t>
@@ -615,8 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des espèces du genre Hoya (dont Hoya guppyi) et Parsonsia spiralis[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des espèces du genre Hoya (dont Hoya guppyi) et Parsonsia spiralis.
 </t>
         </is>
       </c>
@@ -645,12 +668,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea treitschkei est présent en Nouvelle-Guinée, au Vanuatu, aux iles Salomon et en Nouvelle-Calédonie[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea treitschkei est présent en Nouvelle-Guinée, au Vanuatu, aux iles Salomon et en Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_treitschkei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_treitschkei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
